--- a/teaching/traditional_assets/database/data/romania/romania_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/romania/romania_bank_money_center.xlsx
@@ -591,7 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.351</v>
+        <v>0.10705</v>
+      </c>
+      <c r="E2">
+        <v>0.04550000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -600,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006791971902275241</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00594541378490371</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>744.91</v>
+        <v>551.9299999999999</v>
       </c>
       <c r="L2">
-        <v>0.4261255076940679</v>
+        <v>0.3373655256723716</v>
       </c>
       <c r="M2">
-        <v>192.7224</v>
+        <v>294.4575</v>
       </c>
       <c r="N2">
-        <v>0.03312519766242695</v>
+        <v>0.04998599511102059</v>
       </c>
       <c r="O2">
-        <v>0.2587190398840128</v>
+        <v>0.5335051546391754</v>
       </c>
       <c r="P2">
-        <v>186.4224</v>
+        <v>275.4575</v>
       </c>
       <c r="Q2">
-        <v>0.03204235132347886</v>
+        <v>0.04676062674000137</v>
       </c>
       <c r="R2">
-        <v>0.2502616423460552</v>
+        <v>0.4990804993386844</v>
       </c>
       <c r="S2">
-        <v>6.3</v>
+        <v>19</v>
       </c>
       <c r="T2">
-        <v>0.0326895057346733</v>
+        <v>0.06452544085309424</v>
       </c>
       <c r="U2">
-        <v>3440.5</v>
+        <v>2933.6</v>
       </c>
       <c r="V2">
-        <v>0.5913544173255414</v>
+        <v>0.4979968764853671</v>
       </c>
       <c r="W2">
-        <v>0.1924915038232795</v>
+        <v>0.1314602467257214</v>
       </c>
       <c r="X2">
-        <v>0.05618589800781322</v>
+        <v>0.05009939762436894</v>
       </c>
       <c r="Y2">
-        <v>0.1363056058154663</v>
+        <v>0.08136084910135249</v>
       </c>
       <c r="Z2">
-        <v>0.6556210663819005</v>
+        <v>0.9448182264445151</v>
       </c>
       <c r="AA2">
-        <v>0.0005996755980320573</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0522923491407426</v>
+        <v>0.04615201466935195</v>
       </c>
       <c r="AC2">
-        <v>-0.05085035677073568</v>
+        <v>-0.04615201466935195</v>
       </c>
       <c r="AD2">
-        <v>1276.5</v>
+        <v>1453.4</v>
       </c>
       <c r="AE2">
-        <v>226.7497695881632</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1503.249769588163</v>
+        <v>1453.4</v>
       </c>
       <c r="AG2">
-        <v>-1937.250230411837</v>
+        <v>-1480.2</v>
       </c>
       <c r="AH2">
-        <v>0.205326934184452</v>
+        <v>0.1978976607390866</v>
       </c>
       <c r="AI2">
-        <v>0.2728939253462624</v>
+        <v>0.2370498434237996</v>
       </c>
       <c r="AJ2">
-        <v>-0.4991948322958797</v>
+        <v>-0.3356005985580194</v>
       </c>
       <c r="AK2">
-        <v>-0.9367522285489415</v>
+        <v>-0.4629096822616962</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>22.30746378204568</v>
-      </c>
-      <c r="AP2">
-        <v>-33.8543982386774</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Banca Transilvania S.A. (BVB:TLV)</t>
+          <t>BRD - Groupe Société Générale S.A. (BVB:BRD)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -715,6 +712,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.0861</v>
+      </c>
+      <c r="E3">
+        <v>0.208</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -722,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01214562340782967</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01028335083242364</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>362.5</v>
+        <v>241.9</v>
       </c>
       <c r="L3">
-        <v>0.4078532853285329</v>
+        <v>0.3491628175519631</v>
       </c>
       <c r="M3">
-        <v>186.4224</v>
+        <v>275.2755</v>
       </c>
       <c r="N3">
-        <v>0.05917795695511396</v>
+        <v>0.1057897467430153</v>
       </c>
       <c r="O3">
-        <v>0.5142686896551724</v>
+        <v>1.137972302604382</v>
       </c>
       <c r="P3">
-        <v>186.4224</v>
+        <v>275.2755</v>
       </c>
       <c r="Q3">
-        <v>0.05917795695511396</v>
+        <v>0.1057897467430153</v>
       </c>
       <c r="R3">
-        <v>0.5142686896551724</v>
+        <v>1.137972302604382</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -758,67 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2923.1</v>
+        <v>481.4</v>
       </c>
       <c r="V3">
-        <v>0.9279093390895816</v>
+        <v>0.185004419507321</v>
       </c>
       <c r="W3">
-        <v>0.1924915038232795</v>
+        <v>0.1314602467257214</v>
       </c>
       <c r="X3">
-        <v>0.05618589800781322</v>
+        <v>0.04744530327653679</v>
       </c>
       <c r="Y3">
-        <v>0.1363056058154663</v>
+        <v>0.08401494344918464</v>
       </c>
       <c r="Z3">
-        <v>1.324329936899938</v>
+        <v>0.3889512688075454</v>
       </c>
       <c r="AA3">
-        <v>0.01361854935902352</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0522923491407426</v>
+        <v>0.04503010888708486</v>
       </c>
       <c r="AC3">
-        <v>-0.03867379978171908</v>
+        <v>-0.04503010888708486</v>
       </c>
       <c r="AD3">
-        <v>820.1</v>
+        <v>500.3</v>
       </c>
       <c r="AE3">
-        <v>113.0248495756049</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>933.1248495756049</v>
+        <v>500.3</v>
       </c>
       <c r="AG3">
-        <v>-1989.975150424395</v>
+        <v>18.90000000000003</v>
       </c>
       <c r="AH3">
-        <v>0.2285208461121059</v>
+        <v>0.1612622485817432</v>
       </c>
       <c r="AI3">
-        <v>0.3098307103675476</v>
+        <v>0.1831728480943141</v>
       </c>
       <c r="AJ3">
-        <v>-1.715163359199126</v>
+        <v>0.007210988172453275</v>
       </c>
       <c r="AK3">
-        <v>-22.4539185110466</v>
+        <v>0.008400373349926679</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>24.55389221556887</v>
-      </c>
-      <c r="AP3">
-        <v>-59.58009432408368</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRD - Groupe Société Générale S.A. (BVB:BRD)</t>
+          <t>Banca Transilvania S.A. (BVB:TLV)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -838,7 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.351</v>
+        <v>0.128</v>
+      </c>
+      <c r="E4">
+        <v>-0.117</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -847,100 +847,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001729234161477432</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001447526474251776</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>377.2</v>
+        <v>309</v>
       </c>
       <c r="L4">
-        <v>0.4636754763368162</v>
+        <v>0.3401210787011558</v>
       </c>
       <c r="M4">
+        <v>19.182</v>
+      </c>
+      <c r="N4">
+        <v>0.005964181332006716</v>
+      </c>
+      <c r="O4">
+        <v>0.06207766990291261</v>
+      </c>
+      <c r="P4">
+        <v>0.182</v>
+      </c>
+      <c r="Q4">
+        <v>5.658852061438965e-05</v>
+      </c>
+      <c r="R4">
+        <v>0.0005889967637540453</v>
+      </c>
+      <c r="S4">
+        <v>19</v>
+      </c>
+      <c r="T4">
+        <v>0.9905119382754667</v>
+      </c>
+      <c r="U4">
+        <v>2376.5</v>
+      </c>
+      <c r="V4">
+        <v>0.7389154903302034</v>
+      </c>
+      <c r="W4">
+        <v>0.1547320981472208</v>
+      </c>
+      <c r="X4">
+        <v>0.05009939762436894</v>
+      </c>
+      <c r="Y4">
+        <v>0.1046327005228519</v>
+      </c>
+      <c r="Z4">
+        <v>-8.489860760676573</v>
+      </c>
+      <c r="AA4">
         <v>-0</v>
       </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>-0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>-0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>477.8</v>
-      </c>
-      <c r="V4">
-        <v>0.1846355978050854</v>
-      </c>
-      <c r="W4">
-        <v>0.2122798131577466</v>
-      </c>
-      <c r="X4">
-        <v>0.0540260188713465</v>
-      </c>
-      <c r="Y4">
-        <v>0.1582537942864001</v>
-      </c>
-      <c r="Z4">
-        <v>0.4142760831659597</v>
-      </c>
-      <c r="AA4">
-        <v>0.0005996755980320573</v>
-      </c>
       <c r="AB4">
-        <v>0.05145003236876773</v>
+        <v>0.04615201466935195</v>
       </c>
       <c r="AC4">
-        <v>-0.05085035677073568</v>
+        <v>-0.04615201466935195</v>
       </c>
       <c r="AD4">
-        <v>430.4</v>
+        <v>927.8</v>
       </c>
       <c r="AE4">
-        <v>111.4663400481905</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>541.8663400481905</v>
+        <v>927.8</v>
       </c>
       <c r="AG4">
-        <v>64.06634004819051</v>
+        <v>-1448.7</v>
       </c>
       <c r="AH4">
-        <v>0.1731386931297753</v>
+        <v>0.2238899613899614</v>
       </c>
       <c r="AI4">
-        <v>0.226460198381626</v>
+        <v>0.2815098003519631</v>
       </c>
       <c r="AJ4">
-        <v>0.02415896272020493</v>
+        <v>-0.8196322489391797</v>
       </c>
       <c r="AK4">
-        <v>0.03345559590701645</v>
+        <v>-1.575872946807354</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>18.16033755274261</v>
-      </c>
-      <c r="AP4">
-        <v>2.703221099079768</v>
       </c>
     </row>
     <row r="5">
@@ -966,25 +963,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.007177205084575367</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.006763185478430784</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>5.21</v>
+        <v>1.03</v>
       </c>
       <c r="L5">
-        <v>0.1137554585152838</v>
+        <v>0.02968299711815562</v>
       </c>
       <c r="M5">
-        <v>6.3</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.07875</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>1.209213051823417</v>
+        <v>-0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -996,73 +993,64 @@
         <v>-0</v>
       </c>
       <c r="S5">
-        <v>6.3</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>39.6</v>
+        <v>75.7</v>
       </c>
       <c r="V5">
-        <v>0.495</v>
+        <v>1.044137931034483</v>
       </c>
       <c r="W5">
-        <v>0.08485342019543975</v>
+        <v>0.01358839050131926</v>
       </c>
       <c r="X5">
-        <v>0.05760446841208725</v>
+        <v>0.05176807211860267</v>
       </c>
       <c r="Y5">
-        <v>0.0272489517833525</v>
+        <v>-0.0381796816172834</v>
       </c>
       <c r="Z5">
-        <v>1.452650263721397</v>
+        <v>0.6049511854951186</v>
       </c>
       <c r="AA5">
-        <v>-0.009824543168839205</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0549355514310794</v>
+        <v>0.04677544024914178</v>
       </c>
       <c r="AC5">
-        <v>-0.06476009459991861</v>
+        <v>-0.04677544024914178</v>
       </c>
       <c r="AD5">
-        <v>26</v>
+        <v>25.3</v>
       </c>
       <c r="AE5">
-        <v>2.258579964367759</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>28.25857996436776</v>
+        <v>25.3</v>
       </c>
       <c r="AG5">
-        <v>-11.34142003563224</v>
+        <v>-50.40000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.2610285482561178</v>
+        <v>0.2586912065439673</v>
       </c>
       <c r="AI5">
-        <v>0.2715641514043743</v>
+        <v>0.2430355427473583</v>
       </c>
       <c r="AJ5">
-        <v>-0.1651857647145948</v>
+        <v>-2.28054298642534</v>
       </c>
       <c r="AK5">
-        <v>-0.1759489588802871</v>
+        <v>-1.774647887323944</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>211.3821138211382</v>
-      </c>
-      <c r="AP5">
-        <v>-92.2066669563597</v>
       </c>
     </row>
   </sheetData>
